--- a/rag/Rag result.xlsx
+++ b/rag/Rag result.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keven\Desktop\倪宇健\NYU\大三\DS 301\Project\NYU-Policy-LLM\rag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E317CE9-7B3E-4990-AFA7-2916B0F9C778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8FB48A-241B-4468-A36A-B013FF753FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
   <si>
     <t>Gemini 2.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +124,14 @@
     <t>Llama3 Embed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Gemini 1.5 Embed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Gemini 2.0 Embed </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -200,6 +209,3103 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Performance on different components</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Admission</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Llamma3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Llama3 Embed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Llama3 RAG</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mistral</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mistral Embed</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mistral RAG</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Gemma 3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Gemma 3 Embed</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Gemma 3 RAG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00%">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-70C8-49AB-9393-440949E43032}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Degree Requirement</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Llamma3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Llama3 Embed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Llama3 RAG</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mistral</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mistral Embed</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mistral RAG</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Gemma 3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Gemma 3 Embed</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Gemma 3 RAG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00%">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-70C8-49AB-9393-440949E43032}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Honors</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Llamma3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Llama3 Embed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Llama3 RAG</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mistral</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mistral Embed</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mistral RAG</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Gemma 3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Gemma 3 Embed</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Gemma 3 RAG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-70C8-49AB-9393-440949E43032}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Main Policy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Llamma3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Llama3 Embed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Llama3 RAG</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mistral</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mistral Embed</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mistral RAG</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Gemma 3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Gemma 3 Embed</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Gemma 3 RAG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0%">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0%">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0%">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-70C8-49AB-9393-440949E43032}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stading Committee</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Llamma3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Llama3 Embed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Llama3 RAG</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mistral</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mistral Embed</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mistral RAG</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Gemma 3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Gemma 3 Embed</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Gemma 3 RAG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-70C8-49AB-9393-440949E43032}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transfer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Llamma3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Llama3 Embed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Llama3 RAG</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mistral</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mistral Embed</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mistral RAG</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Gemma 3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Gemma 3 Embed</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Gemma 3 RAG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$7:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-70C8-49AB-9393-440949E43032}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="333848687"/>
+        <c:axId val="333862127"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="333848687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="333862127"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="333862127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="333848687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Llamma3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Llama3 Embed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Llama3 RAG</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mistral</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mistral Embed</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mistral RAG</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Gemma 3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Gemma 3 Embed</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Gemma 3 RAG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$8:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00%">
+                  <c:v>0.63329999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-973F-422D-938A-75D7AED85A7A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="333847727"/>
+        <c:axId val="333848207"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$A$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Admission</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$1:$J$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>Llamma3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Llama3 Embed</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Llama3 RAG</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Mistral</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Mistral Embed</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Mistral RAG</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Gemma 3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Gemma 3 Embed</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Gemma 3 RAG</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$2:$J$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.35</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.47</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.45</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.42</c:v>
+                      </c:pt>
+                      <c:pt idx="4" formatCode="0.00%">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.85</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.47370000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.57899999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.85</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-973F-422D-938A-75D7AED85A7A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$A$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Degree Requirement</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$1:$J$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>Llamma3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Llama3 Embed</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Llama3 RAG</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Mistral</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Mistral Embed</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Mistral RAG</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Gemma 3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Gemma 3 Embed</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Gemma 3 RAG</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$3:$J$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.55000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.45</c:v>
+                      </c:pt>
+                      <c:pt idx="2" formatCode="0.00%">
+                        <c:v>0.75</c:v>
+                      </c:pt>
+                      <c:pt idx="3" formatCode="0.00%">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.65</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.95</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-973F-422D-938A-75D7AED85A7A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Honors</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$1:$J$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>Llamma3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Llama3 Embed</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Llama3 RAG</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Mistral</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Mistral Embed</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Mistral RAG</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Gemma 3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Gemma 3 Embed</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Gemma 3 RAG</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$4:$J$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.55000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.75</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.95</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-973F-422D-938A-75D7AED85A7A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Main Policy</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$1:$J$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>Llamma3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Llama3 Embed</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Llama3 RAG</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Mistral</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Mistral Embed</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Mistral RAG</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Gemma 3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Gemma 3 Embed</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Gemma 3 RAG</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$5:$J$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.375</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="4" formatCode="0%">
+                        <c:v>0.65</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.72499999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.32500000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="7" formatCode="0%">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="8" formatCode="0%">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-973F-422D-938A-75D7AED85A7A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Stading Committee</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$1:$J$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>Llamma3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Llama3 Embed</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Llama3 RAG</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Mistral</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Mistral Embed</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Mistral RAG</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Gemma 3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Gemma 3 Embed</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Gemma 3 RAG</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$6:$J$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.65</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.95</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.75</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.75</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-973F-422D-938A-75D7AED85A7A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Transfer</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$1:$J$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>Llamma3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Llama3 Embed</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Llama3 RAG</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Mistral</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Mistral Embed</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Mistral RAG</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Gemma 3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Gemma 3 Embed</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Gemma 3 RAG</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$7:$J$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.85</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.55000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.55000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.85</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-973F-422D-938A-75D7AED85A7A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="333847727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="333848207"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="333848207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="333847727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>678656</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>78580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C4F20A5-0B30-5963-903C-833920104AB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>64292</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>50006</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>316705</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>150019</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D0CD35B-8071-BE3B-E013-D5CCCE18A61A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,8 +3573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.5"/>
@@ -951,7 +4057,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C8"/>
+      <selection sqref="A1:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1250,5 +4356,329 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D07DA53-CA56-4769-8564-D59927FAD235}">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="22.1328125" customWidth="1"/>
+    <col min="2" max="2" width="17.86328125" customWidth="1"/>
+    <col min="4" max="5" width="9.06640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="L2" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="L4" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="L5" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="L6" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="L7" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.63329999999999997</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="L8" s="2">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>